--- a/doc/支持文件/数据库字典.xlsx
+++ b/doc/支持文件/数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>用户表</t>
   </si>
@@ -406,6 +406,33 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>设备绑定表</t>
+  </si>
+  <si>
+    <t>pub_binding</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>关联的经销商ID</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>操作人是谁</t>
+  </si>
+  <si>
+    <t>addtime</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
     <t>系统日志表</t>
   </si>
   <si>
@@ -422,9 +449,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>操作时间</t>
   </si>
   <si>
     <t>ip</t>
@@ -513,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -595,7 +619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +629,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,9 +647,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +732,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -709,36 +756,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,7 +771,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,25 +873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,13 +909,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,121 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,6 +990,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -968,23 +1007,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,11 +1069,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,21 +1246,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,28 +1276,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,7 +1366,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="1E1E1E"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1589,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
@@ -1614,9 +1644,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -1776,9 +1803,6 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -1923,161 +1947,158 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="23" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A23" s="4" t="s">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A25" s="17" t="s">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A27" s="17" t="s">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A29" s="17" t="s">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A30" s="17" t="s">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A31" s="17" t="s">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
@@ -2086,9 +2107,6 @@
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -2178,105 +2196,102 @@
       <c r="F39" s="9"/>
     </row>
     <row r="40" customHeight="1" spans="3:6">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A42" s="15" t="s">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="17" t="s">
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A44" s="17" t="s">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A44" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A45" s="20" t="s">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A46" s="17" t="s">
+    <row r="46" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -2285,9 +2300,6 @@
       <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -2431,9 +2443,6 @@
       <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -2520,477 +2529,468 @@
       </c>
       <c r="F63" s="9"/>
     </row>
-    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A65" s="4" t="s">
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A66" s="15" t="s">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A66" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A67" s="17" t="s">
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A67" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A68" s="17" t="s">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A68" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="17" t="s">
+      <c r="B68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A69" s="17" t="s">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A69" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="B69" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A70" s="17" t="s">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A70" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="17" t="s">
+      <c r="B70" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A71" s="17" t="s">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A71" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17" t="s">
+      <c r="B71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A72" s="17" t="s">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A72" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
+      <c r="C72" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A73" s="17" t="s">
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A73" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17" t="s">
+      <c r="C73" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A74" s="17" t="s">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A74" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17" t="s">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A75" s="17" t="s">
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A75" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="77" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A77" s="4" t="s">
+      <c r="F75" s="9"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A78" s="15" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A79" s="17" t="s">
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="17" t="s">
+      <c r="B79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A80" s="17" t="s">
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A80" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="17" t="s">
+      <c r="B80" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A81" s="17" t="s">
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A81" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="17" t="s">
+      <c r="B81" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A82" s="17" t="s">
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A82" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="17" t="s">
+      <c r="B82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A83" s="17" t="s">
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A83" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="17" t="s">
+      <c r="B83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A84" s="17" t="s">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A84" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="17" t="s">
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A85" s="17" t="s">
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A85" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A86" s="17" t="s">
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A86" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="88" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A88" s="4" t="s">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A89" s="15" t="s">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A89" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A90" s="17" t="s">
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A90" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="17" t="s">
+      <c r="B90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A91" s="17" t="s">
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A91" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="17" t="s">
+      <c r="B91" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="18"/>
-    </row>
-    <row r="92" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A92" s="17" t="s">
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A92" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17" t="s">
+      <c r="C92" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A93" s="17" t="s">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A93" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17" t="s">
+      <c r="C93" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A94" s="17" t="s">
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A94" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17" t="s">
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F94" s="18"/>
-    </row>
-    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A95" s="17" t="s">
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A95" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17" t="s">
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F95" s="18"/>
-    </row>
-    <row r="96" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2998,423 +2998,531 @@
       <c r="E96" s="3"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A97" s="4" t="s">
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A98" s="15" t="s">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="16"/>
-    </row>
-    <row r="99" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A99" s="17" t="s">
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A99" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="17" t="s">
+      <c r="B99" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A100" s="17" t="s">
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A100" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A101" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A102" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A103" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A106" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A108" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="17" t="s">
+      <c r="B108" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A101" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B101" s="17" t="s">
+      <c r="E108" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A109" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C109" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="18"/>
-    </row>
-    <row r="102" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A102" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="17" t="s">
+      <c r="D109" s="13"/>
+      <c r="E109" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A110" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C110" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" s="18"/>
-    </row>
-    <row r="103" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A103" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103" s="17" t="s">
+      <c r="D110" s="13"/>
+      <c r="E110" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A111" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C111" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" s="18"/>
-    </row>
-    <row r="105" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A105" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A106" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A107" s="15" t="s">
+      <c r="D111" s="13"/>
+      <c r="E111" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="113" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A113" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A114" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A115" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B115" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C115" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D115" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E115" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F107" s="16"/>
-    </row>
-    <row r="108" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A108" s="17" t="s">
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A116" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="17" t="s">
+      <c r="B116" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D116" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E116" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="18"/>
-    </row>
-    <row r="109" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A109" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="17" t="s">
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A117" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F109" s="18"/>
-    </row>
-    <row r="110" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A110" s="17" t="s">
+      <c r="D117" s="20"/>
+      <c r="E117" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A118" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="17" t="s">
+      <c r="B118" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F110" s="18"/>
-    </row>
-    <row r="111" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A111" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="17" t="s">
+      <c r="D118" s="20"/>
+      <c r="E118" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A119" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F111" s="18"/>
-    </row>
-    <row r="112" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A112" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="17" t="s">
+      <c r="D119" s="20"/>
+      <c r="E119" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A120" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C120" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F112" s="18"/>
-    </row>
-    <row r="113" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A113" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="17" t="s">
+      <c r="D120" s="20"/>
+      <c r="E120" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A121" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F113" s="18"/>
-    </row>
-    <row r="114" s="6" customFormat="1" customHeight="1" spans="6:6">
-      <c r="F114" s="18"/>
-    </row>
-    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A115" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" s="8" customFormat="1" customHeight="1" spans="6:6">
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A123" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A124" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A125" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A126" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="14"/>
-    </row>
-    <row r="116" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A116" s="15" t="s">
+      <c r="B126" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A127" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A128" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" s="8" customFormat="1" customHeight="1" spans="6:6">
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A131" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B131" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C131" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D131" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E131" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F116" s="16"/>
-    </row>
-    <row r="117" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A117" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="18"/>
-    </row>
-    <row r="118" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A118" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F118" s="18"/>
-    </row>
-    <row r="119" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A119" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F119" s="18"/>
-    </row>
-    <row r="120" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A120" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F120" s="18"/>
-    </row>
-    <row r="121" s="6" customFormat="1" customHeight="1" spans="6:6">
-      <c r="F121" s="18"/>
-    </row>
-    <row r="122" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A122" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A123" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="16"/>
-    </row>
-    <row r="124" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A124" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17" t="s">
+      <c r="F131" s="19"/>
+    </row>
+    <row r="132" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A132" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="18"/>
-    </row>
-    <row r="125" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A125" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F125" s="18"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A133" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F133" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A113:E113"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/doc/支持文件/数据库字典.xlsx
+++ b/doc/支持文件/数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>用户表</t>
   </si>
@@ -244,7 +244,7 @@
     <t>device_code</t>
   </si>
   <si>
-    <t>int(20)</t>
+    <t>varchar(20)</t>
   </si>
   <si>
     <t>设备编码</t>
@@ -253,7 +253,7 @@
     <t>device_statu</t>
   </si>
   <si>
-    <t>设备状态：1已入库，2待激活，3已激活</t>
+    <t>设备状态</t>
   </si>
   <si>
     <t>滤芯表</t>
@@ -304,9 +304,6 @@
     <t>pub_devices_statu</t>
   </si>
   <si>
-    <t>设备状态</t>
-  </si>
-  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
   </si>
   <si>
     <t>规则的自定义名称</t>
@@ -619,13 +613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -654,30 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -685,16 +648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +666,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,16 +695,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +743,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +831,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,127 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,35 +989,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,26 +1021,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1066,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,10 +1085,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1097,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1360,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="1E1E1E"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1621,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
@@ -2511,13 +2505,13 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F62" s="9"/>
     </row>
     <row r="63" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A63" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>27</v>
@@ -2525,16 +2519,16 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="9"/>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F65" s="10"/>
     </row>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="68" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A68" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>8</v>
@@ -2588,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="9"/>
     </row>
@@ -2630,7 +2624,7 @@
     </row>
     <row r="71" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A71" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>8</v>
@@ -2640,39 +2634,39 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="9"/>
     </row>
     <row r="72" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A72" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" s="9"/>
     </row>
     <row r="73" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A73" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" s="9"/>
     </row>
@@ -2686,13 +2680,13 @@
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="9"/>
     </row>
     <row r="75" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A75" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>27</v>
@@ -2700,16 +2694,16 @@
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="9"/>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -2751,7 +2745,7 @@
     </row>
     <row r="80" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A80" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>8</v>
@@ -2763,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F80" s="9"/>
     </row>
@@ -2823,7 +2817,7 @@
     </row>
     <row r="84" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A84" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
@@ -2835,13 +2829,13 @@
         <v>15</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F84" s="9"/>
     </row>
     <row r="85" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A85" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>27</v>
@@ -2849,13 +2843,13 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F85" s="9"/>
     </row>
     <row r="86" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A86" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>27</v>
@@ -2863,16 +2857,16 @@
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="9"/>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -2932,7 +2926,7 @@
     </row>
     <row r="92" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A92" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>24</v>
@@ -2942,29 +2936,29 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="9"/>
     </row>
     <row r="93" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A93" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="9"/>
     </row>
     <row r="94" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A94" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>27</v>
@@ -2972,13 +2966,13 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="9"/>
     </row>
     <row r="95" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A95" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>27</v>
@@ -2986,7 +2980,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" s="9"/>
     </row>
@@ -3000,14 +2994,11 @@
     </row>
     <row r="97" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
       <c r="F97" s="10"/>
     </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -3048,7 +3039,7 @@
     </row>
     <row r="100" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A100" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>8</v>
@@ -3058,13 +3049,13 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F100" s="9"/>
     </row>
     <row r="101" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A101" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>8</v>
@@ -3080,7 +3071,7 @@
     </row>
     <row r="102" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A102" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>43</v>
@@ -3090,13 +3081,13 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F102" s="9"/>
     </row>
     <row r="103" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A103" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>8</v>
@@ -3106,7 +3097,7 @@
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F103" s="9"/>
     </row>
@@ -3120,10 +3111,10 @@
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F105" s="10"/>
     </row>
@@ -3177,13 +3168,13 @@
         <v>15</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F108" s="9"/>
     </row>
     <row r="109" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A109" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>43</v>
@@ -3193,13 +3184,13 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" s="9"/>
     </row>
     <row r="110" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A110" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>27</v>
@@ -3209,13 +3200,13 @@
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F110" s="9"/>
     </row>
     <row r="111" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A111" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>13</v>
@@ -3225,13 +3216,13 @@
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F111" s="9"/>
     </row>
     <row r="113" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A113" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3241,10 +3232,10 @@
     </row>
     <row r="114" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A114" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="F114" s="17"/>
     </row>
@@ -3286,7 +3277,7 @@
     </row>
     <row r="117" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A117" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>8</v>
@@ -3296,7 +3287,7 @@
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F117" s="21"/>
     </row>
@@ -3305,36 +3296,36 @@
         <v>12</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118" s="21"/>
     </row>
     <row r="119" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A119" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F119" s="21"/>
     </row>
     <row r="120" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A120" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -3344,13 +3335,13 @@
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F120" s="21"/>
     </row>
     <row r="121" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A121" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>38</v>
@@ -3358,7 +3349,7 @@
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F121" s="21"/>
     </row>
@@ -3367,10 +3358,10 @@
     </row>
     <row r="123" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A123" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F123" s="17"/>
     </row>
@@ -3412,23 +3403,23 @@
     </row>
     <row r="126" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A126" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F126" s="21"/>
     </row>
     <row r="127" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A127" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -3438,23 +3429,23 @@
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F127" s="21"/>
     </row>
     <row r="128" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A128" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F128" s="21"/>
     </row>
@@ -3463,10 +3454,10 @@
     </row>
     <row r="130" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A130" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F130" s="17"/>
     </row>
@@ -3490,7 +3481,7 @@
     </row>
     <row r="132" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A132" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>8</v>
@@ -3506,7 +3497,7 @@
     </row>
     <row r="133" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A133" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>8</v>
@@ -3516,7 +3507,7 @@
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F133" s="21"/>
     </row>

--- a/doc/支持文件/数据库字典.xlsx
+++ b/doc/支持文件/数据库字典.xlsx
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -634,8 +634,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,9 +665,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,14 +690,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,9 +719,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,23 +728,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,16 +749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +777,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,67 +915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,97 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,69 +990,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1077,6 +1014,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1085,10 +1085,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,137 +1097,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,52 +1246,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
@@ -1779,7 +1785,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>14</v>
@@ -2278,7 +2284,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2514,7 +2520,7 @@
         <v>96</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -2675,7 +2681,7 @@
         <v>31</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -2689,7 +2695,7 @@
         <v>96</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2838,7 +2844,7 @@
         <v>117</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -2852,7 +2858,7 @@
         <v>119</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -2961,7 +2967,7 @@
         <v>117</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -2975,7 +2981,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3193,7 +3199,7 @@
         <v>143</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>14</v>
@@ -3231,285 +3237,304 @@
       <c r="F113" s="17"/>
     </row>
     <row r="114" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="18" t="s">
         <v>148</v>
       </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="17"/>
     </row>
     <row r="115" s="7" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="19"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="20" t="s">
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="21"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="20" t="s">
+      <c r="B117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20" t="s">
+      <c r="D117" s="21"/>
+      <c r="E117" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F117" s="21"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20" t="s">
+      <c r="D118" s="21"/>
+      <c r="E118" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F118" s="21"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20" t="s">
+      <c r="D119" s="21"/>
+      <c r="E119" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F119" s="21"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20" t="s">
+      <c r="D120" s="21"/>
+      <c r="E120" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F120" s="21"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A121" s="20" t="s">
+      <c r="A121" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="21"/>
-    </row>
-    <row r="122" s="8" customFormat="1" customHeight="1" spans="6:6">
-      <c r="F122" s="21"/>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="18" t="s">
         <v>160</v>
       </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
       <c r="F123" s="17"/>
     </row>
     <row r="124" s="7" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="19"/>
+      <c r="F124" s="20"/>
     </row>
     <row r="125" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="20" t="s">
+      <c r="B125" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="21"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20" t="s">
+      <c r="D126" s="21"/>
+      <c r="E126" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F126" s="21"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20" t="s">
+      <c r="C127" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F127" s="21"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20" t="s">
+      <c r="D128" s="21"/>
+      <c r="E128" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F128" s="21"/>
-    </row>
-    <row r="129" s="8" customFormat="1" customHeight="1" spans="6:6">
-      <c r="F129" s="21"/>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="18" t="s">
         <v>166</v>
       </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
       <c r="F130" s="17"/>
     </row>
     <row r="131" s="7" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F131" s="19"/>
+      <c r="F131" s="20"/>
     </row>
     <row r="132" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20" t="s">
+      <c r="B132" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F132" s="21"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20" t="s">
+      <c r="B133" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F133" s="21"/>
+      <c r="F133" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
